--- a/S4. Modelling neuromusculoskeletal deficits/Data/Data_CP2/timepoints_all_CP2.xlsx
+++ b/S4. Modelling neuromusculoskeletal deficits/Data/Data_CP2/timepoints_all_CP2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kuleuven-my.sharepoint.com/personal/dhruv_gupta_kuleuven_be/Documents/KU Leuven/BCN_workshop_full/PredSim-workshop-bcn-2024/Modelling neuromusculoskeletal deficits/ParameterEstimation/Data_CP2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kuleuven-my.sharepoint.com/personal/dhruv_gupta_kuleuven_be/Documents/KU Leuven/BCN_workshop_full/PredSim-workshop-bcn-2024/S4. Modelling neuromusculoskeletal deficits/Data/Data_CP2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="11_714DB0AF484F364C73F1E326F0012D16618BA280" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC5D2664-89CF-44B2-9936-886EAFF11AED}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="11_714DB0AF484F364C73F1E326F0012D16618BA280" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{12DEAEF6-19DD-4CD4-A146-DBA182DD7628}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -169,80 +169,80 @@
     <t>optTrial</t>
   </si>
   <si>
-    <t>Data_CP2\IK\CP16_T0_11_R_IK.mot</t>
-  </si>
-  <si>
-    <t>Data_CP2\ID\CP16_T0_11_R_IK_ID.sto</t>
-  </si>
-  <si>
-    <t>Data_CP2\EMG\filtEMG\CP16_T0_11_filtEMG.mot</t>
-  </si>
-  <si>
-    <t>Data_CP2\IK\CP16_T0_11_L_IK.mot</t>
-  </si>
-  <si>
-    <t>Data_CP2\ID\CP16_T0_11_L_IK_ID.sto</t>
-  </si>
-  <si>
-    <t>Data_CP2\IK\CP16_T0_110_IK.mot</t>
-  </si>
-  <si>
-    <t>Data_CP2\ID\CP16_T0_110_IK_ID.sto</t>
-  </si>
-  <si>
-    <t>Data_CP2\EMG\filtEMG\CP16_T0_110_filtEMG.mot</t>
-  </si>
-  <si>
-    <t>Data_CP2\IK\CP16_T0_120_IK.mot</t>
-  </si>
-  <si>
-    <t>Data_CP2\ID\CP16_T0_120_IK_ID.sto</t>
-  </si>
-  <si>
-    <t>Data_CP2\EMG\filtEMG\CP16_T0_120_filtEMG.mot</t>
-  </si>
-  <si>
-    <t>Data_CP2\IK\CP16_T0_98_IK.mot</t>
-  </si>
-  <si>
-    <t>Data_CP2\ID\CP16_T0_98_IK_ID.sto</t>
-  </si>
-  <si>
-    <t>Data_CP2\EMG\filtEMG\CP16_T0_98_filtEMG.mot</t>
-  </si>
-  <si>
-    <t>Data_CP2\IK\CP16_T0_54_IK.mot</t>
-  </si>
-  <si>
-    <t>Data_CP2\ID\CP16_T0_54_IK_ID.sto</t>
-  </si>
-  <si>
-    <t>Data_CP2\EMG\filtEMG\CP16_T0_54_filtEMG.mot</t>
-  </si>
-  <si>
-    <t>Data_CP2\IK\CP16_T0_62_IK.mot</t>
-  </si>
-  <si>
-    <t>Data_CP2\ID\CP16_T0_62_IK_ID.sto</t>
-  </si>
-  <si>
-    <t>Data_CP2\EMG\filtEMG\CP16_T0_62_filtEMG.mot</t>
-  </si>
-  <si>
-    <t>Data_CP2\IK\CP16_T0_88_IK.mot</t>
-  </si>
-  <si>
-    <t>Data_CP2\ID\CP16_T0_88_IK_ID.sto</t>
-  </si>
-  <si>
-    <t>Data_CP2\EMG\filtEMG\CP16_T0_88_filtEMG.mot</t>
+    <t>IK\CP16_T0_11_R_IK.mot</t>
+  </si>
+  <si>
+    <t>ID\CP16_T0_11_R_IK_ID.sto</t>
+  </si>
+  <si>
+    <t>EMG\filtEMG\CP16_T0_11_filtEMG.mot</t>
+  </si>
+  <si>
+    <t>IK\CP16_T0_11_L_IK.mot</t>
+  </si>
+  <si>
+    <t>ID\CP16_T0_11_L_IK_ID.sto</t>
+  </si>
+  <si>
+    <t>IK\CP16_T0_110_IK.mot</t>
+  </si>
+  <si>
+    <t>ID\CP16_T0_110_IK_ID.sto</t>
+  </si>
+  <si>
+    <t>EMG\filtEMG\CP16_T0_110_filtEMG.mot</t>
+  </si>
+  <si>
+    <t>IK\CP16_T0_120_IK.mot</t>
+  </si>
+  <si>
+    <t>ID\CP16_T0_120_IK_ID.sto</t>
+  </si>
+  <si>
+    <t>EMG\filtEMG\CP16_T0_120_filtEMG.mot</t>
+  </si>
+  <si>
+    <t>IK\CP16_T0_98_IK.mot</t>
+  </si>
+  <si>
+    <t>ID\CP16_T0_98_IK_ID.sto</t>
+  </si>
+  <si>
+    <t>EMG\filtEMG\CP16_T0_98_filtEMG.mot</t>
+  </si>
+  <si>
+    <t>IK\CP16_T0_54_IK.mot</t>
+  </si>
+  <si>
+    <t>ID\CP16_T0_54_IK_ID.sto</t>
+  </si>
+  <si>
+    <t>EMG\filtEMG\CP16_T0_54_filtEMG.mot</t>
+  </si>
+  <si>
+    <t>IK\CP16_T0_62_IK.mot</t>
+  </si>
+  <si>
+    <t>ID\CP16_T0_62_IK_ID.sto</t>
+  </si>
+  <si>
+    <t>EMG\filtEMG\CP16_T0_62_filtEMG.mot</t>
+  </si>
+  <si>
+    <t>IK\CP16_T0_88_IK.mot</t>
+  </si>
+  <si>
+    <t>ID\CP16_T0_88_IK_ID.sto</t>
+  </si>
+  <si>
+    <t>EMG\filtEMG\CP16_T0_88_filtEMG.mot</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -590,7 +590,7 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.88671875" customWidth="1"/>
     <col min="2" max="2" width="17.21875" customWidth="1"/>
@@ -598,10 +598,10 @@
     <col min="4" max="4" width="13.44140625" customWidth="1"/>
     <col min="5" max="5" width="9.21875" customWidth="1"/>
     <col min="6" max="6" width="4.88671875" customWidth="1"/>
-    <col min="7" max="7" width="112.44140625" customWidth="1"/>
+    <col min="7" max="7" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="3" customWidth="1"/>
-    <col min="9" max="9" width="114.6640625" customWidth="1"/>
-    <col min="10" max="10" width="119.5546875" customWidth="1"/>
+    <col min="9" max="9" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="36.109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.21875" customWidth="1"/>
     <col min="12" max="12" width="12.33203125" customWidth="1"/>
     <col min="13" max="14" width="5.6640625" customWidth="1"/>
@@ -609,7 +609,7 @@
     <col min="16" max="16" width="7.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -659,7 +659,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -703,7 +703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -747,7 +747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -788,7 +788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -829,7 +829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -870,7 +870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -911,7 +911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -952,7 +952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
